--- a/data/elm_spring_2022/solutions/solution.xlsx
+++ b/data/elm_spring_2022/solutions/solution.xlsx
@@ -488,7 +488,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Aspen Tong</t>
+          <t>Jasmine Matchawate</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -530,7 +530,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Justyna Swierz</t>
+          <t>Aspen Tong</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -572,7 +572,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Jasmine Matchawate</t>
+          <t>Vivian Yu</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -656,7 +656,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Owen Nevaril</t>
+          <t>Noah Williams</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -698,7 +698,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Noah Williams</t>
+          <t>Owen Nevaril</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -740,7 +740,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Niem Vo</t>
+          <t>Justyna Swierz</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -782,7 +782,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Justyna Swierz</t>
+          <t>Niem Vo</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -950,7 +950,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Natalie O'Rourke</t>
+          <t>Owen Nevaril</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -992,7 +992,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Owen Nevaril</t>
+          <t>Justyna Swierz</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1034,7 +1034,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Justyna Swierz</t>
+          <t>Natalie O'Rourke</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1160,7 +1160,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Alexander Betz</t>
+          <t>Jasmine Matchawate</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1202,7 +1202,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Jasmine Matchawate</t>
+          <t>Alexander Betz</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1244,7 +1244,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Noah Williams</t>
+          <t>Owen Nevaril</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1286,7 +1286,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Owen Nevaril</t>
+          <t>Noah Williams</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1370,7 +1370,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Jasmine Matchawate</t>
+          <t>Justyna Swierz</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1412,7 +1412,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Vivian Yu</t>
+          <t>Tran Nguyen</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1454,7 +1454,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Tran Nguyen</t>
+          <t>Vivian Yu</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1496,7 +1496,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Justyna Swierz</t>
+          <t>Tran Nguyen</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1538,7 +1538,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Owen Nevaril</t>
+          <t>Natalie O'Rourke</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1748,7 +1748,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Jasmine Matchawate</t>
+          <t>Alexander Betz</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1790,7 +1790,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Alexander Betz</t>
+          <t>Jasmine Matchawate</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1916,7 +1916,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Justyna Swierz</t>
+          <t>Niem Vo</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1958,7 +1958,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Niem Vo</t>
+          <t>Jasmine Matchawate</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -2000,7 +2000,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Vivian Yu</t>
+          <t>Tran Nguyen</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -2042,7 +2042,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Tran Nguyen</t>
+          <t>Vivian Yu</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -2084,7 +2084,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Aspen Tong</t>
+          <t>Alexander Betz</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -2126,7 +2126,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Tran Nguyen</t>
+          <t>Justyna Swierz</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -2168,7 +2168,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Aspen Tong</t>
+          <t>Niem Vo</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -2336,7 +2336,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Alexander Betz</t>
+          <t>Jasmine Matchawate</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -2378,7 +2378,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Vivian Yu</t>
+          <t>Alexander Betz</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -2420,7 +2420,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Noah Williams</t>
+          <t>Owen Nevaril</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -2462,7 +2462,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Owen Nevaril</t>
+          <t>Noah Williams</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -2504,7 +2504,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Justyna Swierz</t>
+          <t>Niem Vo</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2546,7 +2546,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Niem Vo</t>
+          <t>Justyna Swierz</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2588,7 +2588,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Tran Nguyen</t>
+          <t>Natalie O'Rourke</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2630,7 +2630,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Vivian Yu</t>
+          <t>Tran Nguyen</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2672,7 +2672,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Tran Nguyen</t>
+          <t>Vivian Yu</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2714,7 +2714,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Vivian Yu</t>
+          <t>Tran Nguyen</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2798,7 +2798,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Niem Vo</t>
+          <t>Vivian Yu</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2840,7 +2840,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Natalie O'Rourke</t>
+          <t>Aspen Tong</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2882,7 +2882,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Aspen Tong</t>
+          <t>Natalie O'Rourke</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -3008,7 +3008,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Owen Nevaril</t>
+          <t>Natalie O'Rourke</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -3092,7 +3092,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Justyna Swierz</t>
+          <t>Niem Vo</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -3134,7 +3134,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Niem Vo</t>
+          <t>Justyna Swierz</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -3218,7 +3218,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Natalie O'Rourke</t>
+          <t>Vivian Yu</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -3344,7 +3344,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Vivian Yu</t>
+          <t>Niem Vo</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -3386,7 +3386,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Niem Vo</t>
+          <t>Owen Nevaril</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -3512,7 +3512,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Jasmine Matchawate</t>
+          <t>Alexander Betz</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -3554,7 +3554,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Alexander Betz</t>
+          <t>Jasmine Matchawate</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -3722,7 +3722,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Jasmine Matchawate</t>
+          <t>Justyna Swierz</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -3764,7 +3764,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Tran Nguyen</t>
+          <t>Vivian Yu</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -3806,7 +3806,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Vivian Yu</t>
+          <t>Tran Nguyen</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3932,7 +3932,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Niem Vo</t>
+          <t>Jasmine Matchawate</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -3974,7 +3974,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Jasmine Matchawate</t>
+          <t>Niem Vo</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -4016,7 +4016,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Natalie O'Rourke</t>
+          <t>Aspen Tong</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -4058,7 +4058,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Aspen Tong</t>
+          <t>Natalie O'Rourke</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -4352,7 +4352,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Tran Nguyen</t>
+          <t>Vivian Yu</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -4394,7 +4394,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Vivian Yu</t>
+          <t>Tran Nguyen</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -4478,7 +4478,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Noah Williams</t>
+          <t>Aspen Tong</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -4520,7 +4520,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Alexander Betz</t>
+          <t>Aspen Tong</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -4562,7 +4562,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Noah Williams</t>
+          <t>Alexander Betz</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -4604,7 +4604,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Natalie O'Rourke</t>
+          <t>Aspen Tong</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -4646,7 +4646,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Aspen Tong</t>
+          <t>Natalie O'Rourke</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -5024,7 +5024,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Natalie O'Rourke</t>
+          <t>Aspen Tong</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -5066,7 +5066,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Alexander Betz</t>
+          <t>Noah Williams</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -5150,7 +5150,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Aspen Tong</t>
+          <t>Noah Williams</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -5192,7 +5192,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Aspen Tong</t>
+          <t>Natalie O'Rourke</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -5234,7 +5234,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Natalie O'Rourke</t>
+          <t>Aspen Tong</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -5444,7 +5444,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Niem Vo</t>
+          <t>Justyna Swierz</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -5486,7 +5486,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Justyna Swierz</t>
+          <t>Niem Vo</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -5696,7 +5696,7 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Niem Vo</t>
+          <t>Owen Nevaril</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -5738,7 +5738,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Owen Nevaril</t>
+          <t>Niem Vo</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -5780,7 +5780,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Aspen Tong</t>
+          <t>Alexander Betz</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -5822,7 +5822,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Natalie O'Rourke</t>
+          <t>Aspen Tong</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -5948,7 +5948,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Alexander Betz</t>
+          <t>Noah Williams</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -5990,7 +5990,7 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Noah Williams</t>
+          <t>Owen Nevaril</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -6032,7 +6032,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Niem Vo</t>
+          <t>Justyna Swierz</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -6074,7 +6074,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Justyna Swierz</t>
+          <t>Niem Vo</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -6116,7 +6116,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Vivian Yu</t>
+          <t>Tran Nguyen</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -6158,7 +6158,7 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Tran Nguyen</t>
+          <t>Vivian Yu</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
